--- a/3.results/model_selection/sterne_caugek_3_blocks_assemblage.xlsx
+++ b/3.results/model_selection/sterne_caugek_3_blocks_assemblage.xlsx
@@ -1,109 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schroll\Documents\stage_M2\3.results\model_selection\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB0974B-AE10-4D44-A0F1-1191299B8F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="blocks" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="blocks" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
-    <t xml:space="preserve">model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rhat_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESS_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvalue_d1_gr1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvalue_d1_gr2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvalue_d2_gr1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvalue_d2_gr2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvalue_d3_gr1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvalue_d3_gr2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvalue_d4_gr1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvalue_d4_gr2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waic_d1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waic_d2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waic_d3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waic_d4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waic_tot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV_d1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV_d2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV_d3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV_d4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV_tot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log_dist_to_shore + log_bathymetry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_CHL + log_sd_VEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_winter_SST + mean_spring_SST + mean_summer_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log_dist_to_shore + log_bathymetry + mean_CHL + log_sd_VEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log_dist_to_shore + log_bathymetry + mean_winter_SST + mean_spring_SST + mean_summer_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_CHL + log_sd_VEL + mean_winter_SST + mean_spring_SST + mean_summer_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log_dist_to_shore + log_bathymetry + mean_CHL + log_sd_VEL + mean_winter_SST + mean_spring_SST + mean_summer_SST</t>
+    <t>model</t>
+  </si>
+  <si>
+    <t>rhat_max</t>
+  </si>
+  <si>
+    <t>ESS_min</t>
+  </si>
+  <si>
+    <t>pvalue_d1_gr1</t>
+  </si>
+  <si>
+    <t>pvalue_d1_gr2</t>
+  </si>
+  <si>
+    <t>pvalue_d2_gr1</t>
+  </si>
+  <si>
+    <t>pvalue_d2_gr2</t>
+  </si>
+  <si>
+    <t>pvalue_d3_gr1</t>
+  </si>
+  <si>
+    <t>pvalue_d3_gr2</t>
+  </si>
+  <si>
+    <t>pvalue_d4_gr1</t>
+  </si>
+  <si>
+    <t>pvalue_d4_gr2</t>
+  </si>
+  <si>
+    <t>waic_d1</t>
+  </si>
+  <si>
+    <t>waic_d2</t>
+  </si>
+  <si>
+    <t>waic_d3</t>
+  </si>
+  <si>
+    <t>waic_d4</t>
+  </si>
+  <si>
+    <t>waic_tot</t>
+  </si>
+  <si>
+    <t>CV_d1</t>
+  </si>
+  <si>
+    <t>CV_d2</t>
+  </si>
+  <si>
+    <t>CV_d3</t>
+  </si>
+  <si>
+    <t>CV_d4</t>
+  </si>
+  <si>
+    <t>CV_tot</t>
+  </si>
+  <si>
+    <t>log_dist_to_shore + log_bathymetry</t>
+  </si>
+  <si>
+    <t>mean_CHL + log_sd_VEL</t>
+  </si>
+  <si>
+    <t>mean_winter_SST + mean_spring_SST + mean_summer_SST</t>
+  </si>
+  <si>
+    <t>log_dist_to_shore + log_bathymetry + mean_CHL + log_sd_VEL</t>
+  </si>
+  <si>
+    <t>log_dist_to_shore + log_bathymetry + mean_winter_SST + mean_spring_SST + mean_summer_SST</t>
+  </si>
+  <si>
+    <t>mean_CHL + log_sd_VEL + mean_winter_SST + mean_spring_SST + mean_summer_SST</t>
+  </si>
+  <si>
+    <t>log_dist_to_shore + log_bathymetry + mean_CHL + log_sd_VEL + mean_winter_SST + mean_spring_SST + mean_summer_SST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -146,7 +153,87 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <sz val="11"/>
@@ -162,12 +249,97 @@
     <dxf>
       <font>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <b/>
-      </font>
+        <color rgb="FF006400"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF90EE90"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF006400"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF90EE90"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF006400"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF90EE90"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF006400"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF90EE90"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF006400"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF90EE90"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF006400"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF90EE90"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF006400"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF90EE90"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -449,14 +621,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,506 +698,506 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>1.05</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>443.4</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>0.647</v>
-      </c>
-      <c r="E2" s="1" t="n">
+      <c r="D2" s="1">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="E2" s="1">
         <v>0.501</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>0.387</v>
-      </c>
-      <c r="G2" s="1" t="n">
+      <c r="F2" s="1">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="G2" s="1">
         <v>0.498</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="1">
         <v>0.222</v>
       </c>
-      <c r="I2" s="1" t="n">
-        <v>0.514</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="L2" s="1" t="n">
+      <c r="I2" s="1">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="L2" s="1">
         <v>813.5</v>
       </c>
-      <c r="M2" s="1" t="n">
-        <v>573.3</v>
-      </c>
-      <c r="N2" s="1" t="n">
+      <c r="M2" s="1">
+        <v>573.29999999999995</v>
+      </c>
+      <c r="N2" s="1">
         <v>241.6</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="1">
         <v>883.1</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="P2" s="1">
         <v>2511.5</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="Q2" s="1">
         <v>814.2</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="R2" s="1">
         <v>577.6</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="S2" s="1">
         <v>245.3</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="T2" s="1">
         <v>883.1</v>
       </c>
-      <c r="U2" s="1" t="n">
-        <v>2520.2</v>
+      <c r="U2" s="1">
+        <v>2520.1999999999998</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>1.025</v>
-      </c>
-      <c r="C3" s="1" t="n">
+      <c r="B3" s="1">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="C3" s="1">
         <v>366.3</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>0.643</v>
-      </c>
-      <c r="E3" s="1" t="n">
+      <c r="D3" s="1">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="E3" s="1">
         <v>0.496</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>0.346</v>
-      </c>
-      <c r="G3" s="1" t="n">
+      <c r="F3" s="1">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="G3" s="1">
         <v>0.495</v>
       </c>
-      <c r="H3" s="1" t="n">
-        <v>0.242</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>0.507</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>0.483</v>
-      </c>
-      <c r="L3" s="1" t="n">
+      <c r="H3" s="1">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="J3" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="L3" s="1">
         <v>781.7</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="M3" s="1">
         <v>557.4</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="N3" s="1">
         <v>233.7</v>
       </c>
-      <c r="O3" s="1" t="n">
+      <c r="O3" s="1">
         <v>862.7</v>
       </c>
-      <c r="P3" s="1" t="n">
+      <c r="P3" s="1">
         <v>2435.5</v>
       </c>
-      <c r="Q3" s="1" t="n">
+      <c r="Q3" s="1">
         <v>781</v>
       </c>
-      <c r="R3" s="1" t="n">
+      <c r="R3" s="1">
         <v>557.6</v>
       </c>
-      <c r="S3" s="1" t="n">
+      <c r="S3" s="1">
         <v>233.4</v>
       </c>
-      <c r="T3" s="1" t="n">
+      <c r="T3" s="1">
         <v>840.2</v>
       </c>
-      <c r="U3" s="1" t="n">
-        <v>2412.2</v>
+      <c r="U3" s="1">
+        <v>2412.1999999999998</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>1.022</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>687.9</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>0.62</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="1">
         <v>0.499</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="1">
         <v>0.373</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="1">
         <v>0.505</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="1">
         <v>0.218</v>
       </c>
-      <c r="I4" s="1" t="n">
-        <v>0.518</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>0.493</v>
-      </c>
-      <c r="L4" s="1" t="n">
+      <c r="I4" s="1">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="L4" s="1">
         <v>786.4</v>
       </c>
-      <c r="M4" s="1" t="n">
-        <v>570.8</v>
-      </c>
-      <c r="N4" s="1" t="n">
+      <c r="M4" s="1">
+        <v>570.79999999999995</v>
+      </c>
+      <c r="N4" s="1">
         <v>233.7</v>
       </c>
-      <c r="O4" s="1" t="n">
+      <c r="O4" s="1">
         <v>854</v>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="P4" s="1">
         <v>2444.9</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="Q4" s="1">
         <v>784</v>
       </c>
-      <c r="R4" s="1" t="n">
+      <c r="R4" s="1">
         <v>578</v>
       </c>
-      <c r="S4" s="1" t="n">
+      <c r="S4" s="1">
         <v>236.3</v>
       </c>
-      <c r="T4" s="1" t="n">
+      <c r="T4" s="1">
         <v>836.2</v>
       </c>
-      <c r="U4" s="1" t="n">
+      <c r="U4" s="1">
         <v>2434.5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>1.031</v>
-      </c>
-      <c r="C5" s="1" t="n">
+      <c r="B5" s="1">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="C5" s="1">
         <v>339.5</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>0.659</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>0.482</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>0.397</v>
-      </c>
-      <c r="G5" s="1" t="n">
+      <c r="D5" s="1">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="G5" s="1">
         <v>0.49</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="1">
         <v>0.24</v>
       </c>
-      <c r="I5" s="1" t="n">
-        <v>0.531</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="K5" s="1" t="n">
+      <c r="I5" s="1">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K5" s="1">
         <v>0.498</v>
       </c>
-      <c r="L5" s="1" t="n">
+      <c r="L5" s="1">
         <v>784.4</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="M5" s="1">
         <v>552</v>
       </c>
-      <c r="N5" s="1" t="n">
+      <c r="N5" s="1">
         <v>231.1</v>
       </c>
-      <c r="O5" s="1" t="n">
+      <c r="O5" s="1">
         <v>862</v>
       </c>
-      <c r="P5" s="1" t="n">
+      <c r="P5" s="1">
         <v>2429.5</v>
       </c>
-      <c r="Q5" s="1" t="n">
+      <c r="Q5" s="1">
         <v>784.2</v>
       </c>
-      <c r="R5" s="1" t="n">
-        <v>553.7</v>
-      </c>
-      <c r="S5" s="1" t="n">
+      <c r="R5" s="1">
+        <v>553.70000000000005</v>
+      </c>
+      <c r="S5" s="1">
         <v>231</v>
       </c>
-      <c r="T5" s="1" t="n">
+      <c r="T5" s="1">
         <v>845.1</v>
       </c>
-      <c r="U5" s="1" t="n">
+      <c r="U5" s="1">
         <v>2414</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>1.019</v>
-      </c>
-      <c r="C6" s="1" t="n">
+      <c r="B6" s="1">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="C6" s="1">
         <v>580.6</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <v>0.645</v>
-      </c>
-      <c r="E6" s="1" t="n">
+      <c r="D6" s="1">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="E6" s="1">
         <v>0.52</v>
       </c>
-      <c r="F6" s="1" t="n">
-        <v>0.416</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.475</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>0.228</v>
-      </c>
-      <c r="I6" s="1" t="n">
+      <c r="F6" s="1">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="I6" s="1">
         <v>0.503</v>
       </c>
-      <c r="J6" s="1" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="K6" s="1" t="n">
+      <c r="J6" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="K6" s="1">
         <v>0.502</v>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="L6" s="1">
         <v>785</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="M6" s="1">
         <v>560.4</v>
       </c>
-      <c r="N6" s="1" t="n">
+      <c r="N6" s="1">
         <v>230.6</v>
       </c>
-      <c r="O6" s="1" t="n">
+      <c r="O6" s="1">
         <v>855.2</v>
       </c>
-      <c r="P6" s="1" t="n">
-        <v>2431.2</v>
-      </c>
-      <c r="Q6" s="1" t="n">
+      <c r="P6" s="1">
+        <v>2431.1999999999998</v>
+      </c>
+      <c r="Q6" s="1">
         <v>783.9</v>
       </c>
-      <c r="R6" s="1" t="n">
+      <c r="R6" s="1">
         <v>570</v>
       </c>
-      <c r="S6" s="1" t="n">
+      <c r="S6" s="1">
         <v>231.9</v>
       </c>
-      <c r="T6" s="1" t="n">
+      <c r="T6" s="1">
         <v>837.9</v>
       </c>
-      <c r="U6" s="1" t="n">
-        <v>2423.7</v>
+      <c r="U6" s="1">
+        <v>2423.6999999999998</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>1.053</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>608.7</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>0.644</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>0.402</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>0.514</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>0.226</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>0.527</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>0.517</v>
-      </c>
-      <c r="L7" s="1" t="n">
+      <c r="B7" s="1">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>608.70000000000005</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="L7" s="1">
         <v>776.2</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="M7" s="1">
         <v>552.9</v>
       </c>
-      <c r="N7" s="1" t="n">
+      <c r="N7" s="1">
         <v>231.7</v>
       </c>
-      <c r="O7" s="1" t="n">
+      <c r="O7" s="1">
         <v>849.7</v>
       </c>
-      <c r="P7" s="1" t="n">
+      <c r="P7" s="1">
         <v>2410.5</v>
       </c>
-      <c r="Q7" s="1" t="n">
+      <c r="Q7" s="1">
         <v>773.5</v>
       </c>
       <c r="R7" s="1" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="S7" s="1" t="n">
+      <c r="S7" s="1">
         <v>233.7</v>
       </c>
-      <c r="T7" s="1" t="n">
+      <c r="T7" s="1">
         <v>821.5</v>
       </c>
       <c r="U7" s="1" t="e">
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>1.053</v>
-      </c>
-      <c r="C8" s="1" t="n">
+      <c r="B8" s="1">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="C8" s="1">
         <v>500.8</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <v>0.635</v>
-      </c>
-      <c r="E8" s="1" t="n">
+      <c r="D8" s="1">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="E8" s="1">
         <v>0.498</v>
       </c>
-      <c r="F8" s="1" t="n">
-        <v>0.404</v>
-      </c>
-      <c r="G8" s="1" t="n">
+      <c r="F8" s="1">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="G8" s="1">
         <v>0.48</v>
       </c>
-      <c r="H8" s="1" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>0.522</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="K8" s="1" t="n">
+      <c r="H8" s="1">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="K8" s="1">
         <v>0.5</v>
       </c>
-      <c r="L8" s="1" t="n">
+      <c r="L8" s="1">
         <v>777.2</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="M8" s="1">
         <v>551.9</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="N8" s="1">
         <v>230.3</v>
       </c>
-      <c r="O8" s="1" t="n">
+      <c r="O8" s="1">
         <v>851</v>
       </c>
-      <c r="P8" s="1" t="n">
+      <c r="P8" s="1">
         <v>2410.4</v>
       </c>
-      <c r="Q8" s="1" t="n">
+      <c r="Q8" s="1">
         <v>775.4</v>
       </c>
-      <c r="R8" s="1" t="n">
+      <c r="R8" s="1">
         <v>559.4</v>
       </c>
-      <c r="S8" s="1" t="n">
+      <c r="S8" s="1">
         <v>230.6</v>
       </c>
-      <c r="T8" s="1" t="n">
+      <c r="T8" s="1">
         <v>828</v>
       </c>
-      <c r="U8" s="1" t="n">
+      <c r="U8" s="1">
         <v>2393.4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D8">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="28" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E8">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="27" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F8">
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="26" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G8">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H8">
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="24" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I8">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="23" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J8">
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="22" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K8">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="21" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
     </cfRule>
@@ -1034,7 +1211,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="19">
+    <cfRule type="expression" dxfId="9" priority="19">
       <formula>L2&lt;781.2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1047,7 +1224,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="17">
+    <cfRule type="expression" dxfId="8" priority="17">
       <formula>M2&lt;556.9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1060,7 +1237,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="15">
+    <cfRule type="expression" dxfId="7" priority="15">
       <formula>N2&lt;235.3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1073,7 +1250,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="13">
+    <cfRule type="expression" dxfId="6" priority="13">
       <formula>O2&lt;854.7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1086,7 +1263,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula>P2&lt;2415.4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1099,7 +1276,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>Q2&lt;778.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1112,7 +1289,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>R2&lt;558.7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1125,7 +1302,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>S2&lt;235.6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1151,11 +1328,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>U2&lt;2398.4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>